--- a/doors-detector/results/house9_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
+++ b/doors-detector/results/house9_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7678417498843489</v>
+        <v>0.7556582617583766</v>
       </c>
       <c r="F2" t="n">
         <v>910</v>
       </c>
       <c r="G2" t="n">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="H2" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4949853476988534</v>
+        <v>0.4554243226558012</v>
       </c>
       <c r="F3" t="n">
         <v>163</v>
       </c>
       <c r="G3" t="n">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H3" t="n">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4274371206145406</v>
+        <v>0.4538504331814342</v>
       </c>
       <c r="F4" t="n">
         <v>208</v>
       </c>
       <c r="G4" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H4" t="n">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7656049874323633</v>
+        <v>0.7351731452739824</v>
       </c>
       <c r="F5" t="n">
         <v>910</v>
       </c>
       <c r="G5" t="n">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="H5" t="n">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7167143541041429</v>
+        <v>0.7340875698102658</v>
       </c>
       <c r="F6" t="n">
         <v>163</v>
       </c>
       <c r="G6" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H6" t="n">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6058562858796467</v>
+        <v>0.5917064954486685</v>
       </c>
       <c r="F7" t="n">
         <v>208</v>
       </c>
       <c r="G7" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H7" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7955046594793747</v>
+        <v>0.81131465057401</v>
       </c>
       <c r="F8" t="n">
         <v>910</v>
       </c>
       <c r="G8" t="n">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="H8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7143596458492567</v>
+        <v>0.7633690234140277</v>
       </c>
       <c r="F9" t="n">
         <v>163</v>
       </c>
       <c r="G9" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H9" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6692726970978216</v>
+        <v>0.6371107587335586</v>
       </c>
       <c r="F10" t="n">
         <v>208</v>
       </c>
       <c r="G10" t="n">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H10" t="n">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.762111661878401</v>
+        <v>0.7574136956023795</v>
       </c>
       <c r="F11" t="n">
         <v>910</v>
       </c>
       <c r="G11" t="n">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="H11" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7877798184449859</v>
+        <v>0.7867834948159101</v>
       </c>
       <c r="F12" t="n">
         <v>163</v>
       </c>
       <c r="G12" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H12" t="n">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.634468304205665</v>
+        <v>0.6674080171420775</v>
       </c>
       <c r="F13" t="n">
         <v>208</v>
       </c>
       <c r="G13" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H13" t="n">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7428978247983998</v>
+        <v>0.7542957058533091</v>
       </c>
       <c r="F14" t="n">
         <v>910</v>
       </c>
       <c r="G14" t="n">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H14" t="n">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7311982313756873</v>
+        <v>0.812246746628973</v>
       </c>
       <c r="F15" t="n">
         <v>163</v>
       </c>
       <c r="G15" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H15" t="n">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6501834245689807</v>
+        <v>0.6928062572534048</v>
       </c>
       <c r="F16" t="n">
         <v>208</v>
       </c>
       <c r="G16" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="H16" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7740801250959136</v>
+        <v>0.7383628302674587</v>
       </c>
       <c r="F17" t="n">
         <v>910</v>
       </c>
       <c r="G17" t="n">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="H17" t="n">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7886419796536855</v>
+        <v>0.8252928127624415</v>
       </c>
       <c r="F18" t="n">
         <v>163</v>
       </c>
       <c r="G18" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H18" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.664700058576702</v>
+        <v>0.7209084770925134</v>
       </c>
       <c r="F19" t="n">
         <v>208</v>
       </c>
       <c r="G19" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="H19" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
